--- a/Mohammed Gm.xlsx
+++ b/Mohammed Gm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart1\Documents\GitHub\addons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFBAECA-6828-4C60-9E29-C5EF13ADB958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CC5EBB-6323-484E-9552-72CA6676DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>[36] Al Khobar Branch (138)</t>
   </si>
@@ -78,12 +78,18 @@
   <si>
     <t>الروضة</t>
   </si>
+  <si>
+    <t>الخبر</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +139,20 @@
       <sz val="11"/>
       <name val="DroidArabicKufiRegular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DroidArabicKufiRegular"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -245,14 +269,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,14 +614,14 @@
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="1" t="s">
@@ -657,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458B20C-1B04-4155-925E-B59A9F984BC9}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,350 +695,596 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>260001482</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>300061974</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="8">
+        <f>(A2+1)</f>
+        <v>260001483</v>
+      </c>
+      <c r="B3" s="8">
         <f>(B2+1)</f>
         <v>300061975</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B4" s="10">
-        <f t="shared" ref="B4:B40" si="0">(B3+1)</f>
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A18" si="0">(A3+1)</f>
+        <v>260001484</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B67" si="1">(B3+1)</f>
         <v>300061976</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B5" s="10">
-        <f t="shared" si="0"/>
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>260001485</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="1"/>
         <v>300061977</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B6" s="10">
-        <f t="shared" si="0"/>
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>260001486</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="1"/>
         <v>300061978</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B7" s="10">
-        <f t="shared" si="0"/>
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>260001487</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="1"/>
         <v>300061979</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B8" s="10">
-        <f t="shared" si="0"/>
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>260001488</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
         <v>300061980</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B9" s="10">
-        <f t="shared" si="0"/>
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>260001489</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
         <v>300061981</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>260001490</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="1"/>
         <v>300061982</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B11" s="10">
-        <f t="shared" si="0"/>
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>260001491</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="1"/>
         <v>300061983</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B12" s="10">
-        <f t="shared" si="0"/>
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>260001492</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
         <v>300061984</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B13" s="10">
-        <f t="shared" si="0"/>
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>260001493</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
         <v>300061985</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="10">
-        <v>260001482</v>
-      </c>
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>260001494</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
         <v>300061986</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10">
-        <f t="shared" si="0"/>
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>260001495</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
         <v>300061987</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10">
-        <f t="shared" si="0"/>
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>260001496</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
         <v>300061988</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>260001497</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
         <v>300061989</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10">
-        <f t="shared" si="0"/>
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>260001498</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
         <v>300061990</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10">
-        <f t="shared" si="0"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
         <v>300061991</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10">
-        <f t="shared" si="0"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
         <v>300061992</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10">
-        <f t="shared" si="0"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
         <v>300061993</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10">
-        <f t="shared" si="0"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
         <v>300061994</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10">
-        <f t="shared" si="0"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8">
+        <f t="shared" si="1"/>
         <v>300061995</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10">
-        <f t="shared" si="0"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
         <v>300061996</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10">
-        <f t="shared" si="0"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
+        <f t="shared" si="1"/>
         <v>300061997</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10">
-        <f t="shared" si="0"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8">
+        <f t="shared" si="1"/>
         <v>300061998</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10">
-        <f t="shared" si="0"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8">
+        <f t="shared" si="1"/>
         <v>300061999</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10">
-        <f t="shared" si="0"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8">
+        <f t="shared" si="1"/>
         <v>300062000</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10">
-        <f t="shared" si="0"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
         <v>300062001</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="15.75">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10">
-        <f t="shared" si="0"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
+        <f t="shared" si="1"/>
         <v>300062002</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10">
-        <f t="shared" si="0"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8">
+        <f t="shared" si="1"/>
         <v>300062003</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" ht="15.75">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10">
-        <f t="shared" si="0"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8">
+        <f t="shared" si="1"/>
         <v>300062004</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="15.75">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10">
-        <f t="shared" si="0"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8">
+        <f t="shared" si="1"/>
         <v>300062005</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10">
-        <f t="shared" si="0"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8">
+        <f t="shared" si="1"/>
         <v>300062006</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10">
-        <f t="shared" si="0"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8">
+        <f t="shared" si="1"/>
         <v>300062007</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10">
-        <f t="shared" si="0"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8">
+        <f t="shared" si="1"/>
         <v>300062008</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="15.75">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10">
-        <f t="shared" si="0"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8">
+        <f t="shared" si="1"/>
         <v>300062009</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="15.75">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10">
-        <f t="shared" si="0"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8">
+        <f t="shared" si="1"/>
         <v>300062010</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10">
-        <f t="shared" si="0"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8">
+        <f t="shared" si="1"/>
         <v>300062011</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10">
-        <f t="shared" si="0"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8">
+        <f t="shared" si="1"/>
         <v>300062012</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75">
+      <c r="B41" s="8">
+        <f t="shared" si="1"/>
+        <v>300062013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75">
+      <c r="B42" s="8">
+        <f t="shared" si="1"/>
+        <v>300062014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75">
+      <c r="B43" s="8">
+        <f t="shared" si="1"/>
+        <v>300062015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75">
+      <c r="B44" s="8">
+        <f t="shared" si="1"/>
+        <v>300062016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75">
+      <c r="B45" s="8">
+        <f t="shared" si="1"/>
+        <v>300062017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75">
+      <c r="B46" s="8">
+        <f t="shared" si="1"/>
+        <v>300062018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75">
+      <c r="B47" s="8">
+        <f t="shared" si="1"/>
+        <v>300062019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75">
+      <c r="B48" s="8">
+        <f t="shared" si="1"/>
+        <v>300062020</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15.75">
+      <c r="B49" s="8">
+        <f t="shared" si="1"/>
+        <v>300062021</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.75">
+      <c r="B50" s="8">
+        <f t="shared" si="1"/>
+        <v>300062022</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15.75">
+      <c r="B51" s="8">
+        <f t="shared" si="1"/>
+        <v>300062023</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75">
+      <c r="B52" s="8">
+        <f t="shared" si="1"/>
+        <v>300062024</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15.75">
+      <c r="B53" s="8">
+        <f t="shared" si="1"/>
+        <v>300062025</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75">
+      <c r="B54" s="8">
+        <f t="shared" si="1"/>
+        <v>300062026</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="15.75">
+      <c r="B55" s="8">
+        <f t="shared" si="1"/>
+        <v>300062027</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.75">
+      <c r="B56" s="8">
+        <f t="shared" si="1"/>
+        <v>300062028</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="15.75">
+      <c r="B57" s="8">
+        <f t="shared" si="1"/>
+        <v>300062029</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="15.75">
+      <c r="B58" s="8">
+        <f t="shared" si="1"/>
+        <v>300062030</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="15.75">
+      <c r="B59" s="8">
+        <f t="shared" si="1"/>
+        <v>300062031</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="15.75">
+      <c r="B60" s="8">
+        <f t="shared" si="1"/>
+        <v>300062032</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="15.75">
+      <c r="B61" s="8">
+        <f t="shared" si="1"/>
+        <v>300062033</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15.75">
+      <c r="B62" s="8">
+        <f t="shared" si="1"/>
+        <v>300062034</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15.75">
+      <c r="B63" s="8">
+        <f t="shared" si="1"/>
+        <v>300062035</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15.75">
+      <c r="B64" s="8">
+        <f t="shared" si="1"/>
+        <v>300062036</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75">
+      <c r="B65" s="8">
+        <f t="shared" si="1"/>
+        <v>300062037</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.75">
+      <c r="B66" s="8">
+        <f t="shared" si="1"/>
+        <v>300062038</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.75">
+      <c r="B67" s="8">
+        <f t="shared" si="1"/>
+        <v>300062039</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15.75">
+      <c r="B68" s="8">
+        <f t="shared" ref="B68:B80" si="2">(B67+1)</f>
+        <v>300062040</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15.75">
+      <c r="B69" s="8">
+        <f t="shared" si="2"/>
+        <v>300062041</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15.75">
+      <c r="B70" s="8">
+        <f t="shared" si="2"/>
+        <v>300062042</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15.75">
+      <c r="B71" s="8">
+        <f t="shared" si="2"/>
+        <v>300062043</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="15.75">
+      <c r="B72" s="8">
+        <f t="shared" si="2"/>
+        <v>300062044</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="15.75">
+      <c r="B73" s="8">
+        <f t="shared" si="2"/>
+        <v>300062045</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="15.75">
+      <c r="B74" s="8">
+        <f t="shared" si="2"/>
+        <v>300062046</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="15.75">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75">
+      <c r="B80" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,89 +1293,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF1FD5-29EE-421C-AA0A-0A80037E3444}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="11">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9">
         <v>930009025</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="11">
+      <c r="B2" s="9">
+        <v>926000278</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
         <f>(A2+1)</f>
         <v>930009026</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A8" si="0">(A3+1)</f>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A20" si="0">(A3+1)</f>
         <v>930009027</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="11">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>930009028</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="11">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>930009029</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="11">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>930009030</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="11">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>930009031</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="11"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>930009032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>930009033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>930009034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>930009035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>930009036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>930009037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>930009038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>930009039</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>930009040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>930009041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>930009042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12">
+        <f t="shared" si="0"/>
+        <v>930009043</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mohammed Gm.xlsx
+++ b/Mohammed Gm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart1\Documents\GitHub\addons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CC5EBB-6323-484E-9552-72CA6676DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE57115-A1D0-46EC-B21E-0C0AFE121A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>[36] Al Khobar Branch (138)</t>
   </si>
@@ -81,15 +81,12 @@
   <si>
     <t>الخبر</t>
   </si>
-  <si>
-    <t>missing</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,15 +138,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DroidArabicKufiRegular"/>
     </font>
   </fonts>
   <fills count="4">
@@ -167,7 +158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -277,7 +268,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -597,7 +587,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458B20C-1B04-4155-925E-B59A9F984BC9}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -725,7 +715,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A18" si="0">(A3+1)</f>
+        <f t="shared" ref="A4:A28" si="0">(A3+1)</f>
         <v>260001484</v>
       </c>
       <c r="B4" s="8">
@@ -889,7 +879,10 @@
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>260001499</v>
+      </c>
       <c r="B19" s="8">
         <f t="shared" si="1"/>
         <v>300061991</v>
@@ -897,7 +890,10 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="8"/>
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>260001500</v>
+      </c>
       <c r="B20" s="8">
         <f t="shared" si="1"/>
         <v>300061992</v>
@@ -905,7 +901,10 @@
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>260001501</v>
+      </c>
       <c r="B21" s="8">
         <f t="shared" si="1"/>
         <v>300061993</v>
@@ -913,7 +912,10 @@
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>260001502</v>
+      </c>
       <c r="B22" s="8">
         <f t="shared" si="1"/>
         <v>300061994</v>
@@ -921,7 +923,10 @@
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>260001503</v>
+      </c>
       <c r="B23" s="8">
         <f t="shared" si="1"/>
         <v>300061995</v>
@@ -929,7 +934,10 @@
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>260001504</v>
+      </c>
       <c r="B24" s="8">
         <f t="shared" si="1"/>
         <v>300061996</v>
@@ -937,7 +945,10 @@
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="8"/>
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>260001505</v>
+      </c>
       <c r="B25" s="8">
         <f t="shared" si="1"/>
         <v>300061997</v>
@@ -945,7 +956,10 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>260001506</v>
+      </c>
       <c r="B26" s="8">
         <f t="shared" si="1"/>
         <v>300061998</v>
@@ -953,7 +967,10 @@
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
-      <c r="A27" s="8"/>
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>260001507</v>
+      </c>
       <c r="B27" s="8">
         <f t="shared" si="1"/>
         <v>300061999</v>
@@ -961,7 +978,10 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15.75">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>260001508</v>
+      </c>
       <c r="B28" s="8">
         <f t="shared" si="1"/>
         <v>300062000</v>
@@ -1228,7 +1248,7 @@
     </row>
     <row r="68" spans="2:2" ht="15.75">
       <c r="B68" s="8">
-        <f t="shared" ref="B68:B80" si="2">(B67+1)</f>
+        <f t="shared" ref="B68:B100" si="2">(B67+1)</f>
         <v>300062040</v>
       </c>
     </row>
@@ -1269,22 +1289,160 @@
       </c>
     </row>
     <row r="75" spans="2:2" ht="15.75">
-      <c r="B75" s="8"/>
+      <c r="B75" s="8">
+        <f t="shared" si="2"/>
+        <v>300062047</v>
+      </c>
     </row>
     <row r="76" spans="2:2" ht="15.75">
-      <c r="B76" s="8"/>
+      <c r="B76" s="8">
+        <f t="shared" si="2"/>
+        <v>300062048</v>
+      </c>
     </row>
     <row r="77" spans="2:2" ht="15.75">
-      <c r="B77" s="8"/>
+      <c r="B77" s="8">
+        <f t="shared" si="2"/>
+        <v>300062049</v>
+      </c>
     </row>
     <row r="78" spans="2:2" ht="15.75">
-      <c r="B78" s="8"/>
+      <c r="B78" s="8">
+        <f t="shared" si="2"/>
+        <v>300062050</v>
+      </c>
     </row>
     <row r="79" spans="2:2" ht="15.75">
-      <c r="B79" s="8"/>
+      <c r="B79" s="8">
+        <f t="shared" si="2"/>
+        <v>300062051</v>
+      </c>
     </row>
     <row r="80" spans="2:2" ht="15.75">
-      <c r="B80" s="8"/>
+      <c r="B80" s="8">
+        <f t="shared" si="2"/>
+        <v>300062052</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="15.75">
+      <c r="B81" s="8">
+        <f t="shared" si="2"/>
+        <v>300062053</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15.75">
+      <c r="B82" s="8">
+        <f t="shared" si="2"/>
+        <v>300062054</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15.75">
+      <c r="B83" s="8">
+        <f t="shared" si="2"/>
+        <v>300062055</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15.75">
+      <c r="B84" s="8">
+        <f t="shared" si="2"/>
+        <v>300062056</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="15.75">
+      <c r="B85" s="8">
+        <f t="shared" si="2"/>
+        <v>300062057</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="15.75">
+      <c r="B86" s="8">
+        <f t="shared" si="2"/>
+        <v>300062058</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="15.75">
+      <c r="B87" s="8">
+        <f t="shared" si="2"/>
+        <v>300062059</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="15.75">
+      <c r="B88" s="8">
+        <f t="shared" si="2"/>
+        <v>300062060</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="15.75">
+      <c r="B89" s="8">
+        <f t="shared" si="2"/>
+        <v>300062061</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="15.75">
+      <c r="B90" s="8">
+        <f t="shared" si="2"/>
+        <v>300062062</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="15.75">
+      <c r="B91" s="8">
+        <f t="shared" si="2"/>
+        <v>300062063</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="15.75">
+      <c r="B92" s="8">
+        <f t="shared" si="2"/>
+        <v>300062064</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="15.75">
+      <c r="B93" s="8">
+        <f t="shared" si="2"/>
+        <v>300062065</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="15.75">
+      <c r="B94" s="8">
+        <f t="shared" si="2"/>
+        <v>300062066</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="15.75">
+      <c r="B95" s="8">
+        <f t="shared" si="2"/>
+        <v>300062067</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="15.75">
+      <c r="B96" s="8">
+        <f t="shared" si="2"/>
+        <v>300062068</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15.75">
+      <c r="B97" s="8">
+        <f t="shared" si="2"/>
+        <v>300062069</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15.75">
+      <c r="B98" s="8">
+        <f t="shared" si="2"/>
+        <v>300062070</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="15.75">
+      <c r="B99" s="8">
+        <f t="shared" si="2"/>
+        <v>300062071</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="15.75">
+      <c r="B100" s="8">
+        <f t="shared" si="2"/>
+        <v>300062072</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1293,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF1FD5-29EE-421C-AA0A-0A80037E3444}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1470,7 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9">
@@ -1322,24 +1480,27 @@
         <v>926000278</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9">
         <f>(A2+1)</f>
         <v>930009026</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <f>(B2+1)</f>
+        <v>926000279</v>
+      </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A20" si="0">(A3+1)</f>
+        <f t="shared" ref="A4:A28" si="0">(A3+1)</f>
         <v>930009027</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9">
+        <f>(B3+1)</f>
+        <v>926000280</v>
+      </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:7">
@@ -1439,9 +1600,57 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>930009043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>930009044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>930009045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>930009046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>930009047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>930009048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>930009049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>930009050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>930009051</v>
       </c>
     </row>
   </sheetData>

--- a/Mohammed Gm.xlsx
+++ b/Mohammed Gm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE57115-A1D0-46EC-B21E-0C0AFE121A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79062B6D-FC26-4B50-A81C-7D51591CA224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,13 +262,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,14 +604,14 @@
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="1" t="s">
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458B20C-1B04-4155-925E-B59A9F984BC9}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="68" spans="2:2" ht="15.75">
       <c r="B68" s="8">
-        <f t="shared" ref="B68:B100" si="2">(B67+1)</f>
+        <f t="shared" ref="B68:B103" si="2">(B67+1)</f>
         <v>300062040</v>
       </c>
     </row>
@@ -1442,6 +1442,24 @@
       <c r="B100" s="8">
         <f t="shared" si="2"/>
         <v>300062072</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="15.75">
+      <c r="B101" s="8">
+        <f t="shared" si="2"/>
+        <v>300062073</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="15.75">
+      <c r="B102" s="8">
+        <f t="shared" si="2"/>
+        <v>300062074</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="15.75">
+      <c r="B103" s="8">
+        <f t="shared" si="2"/>
+        <v>300062075</v>
       </c>
     </row>
   </sheetData>
@@ -1451,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF1FD5-29EE-421C-AA0A-0A80037E3444}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1470,7 +1488,7 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9">
@@ -1494,7 +1512,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A28" si="0">(A3+1)</f>
+        <f t="shared" ref="A4:A30" si="0">(A3+1)</f>
         <v>930009027</v>
       </c>
       <c r="B4" s="9">
@@ -1651,6 +1669,18 @@
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>930009051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>930009052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>930009053</v>
       </c>
     </row>
   </sheetData>

--- a/Mohammed Gm.xlsx
+++ b/Mohammed Gm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79062B6D-FC26-4B50-A81C-7D51591CA224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F191E7-C33B-4C8F-AAA7-C191EEE1013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F418FB7F-82F8-4F58-877E-B0BF7B0ED534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>[36] Al Khobar Branch (138)</t>
   </si>
@@ -81,12 +81,27 @@
   <si>
     <t>الخبر</t>
   </si>
+  <si>
+    <t xml:space="preserve">New Week </t>
+  </si>
+  <si>
+    <t>New WEEK</t>
+  </si>
+  <si>
+    <t>new week</t>
+  </si>
+  <si>
+    <t>نجران</t>
+  </si>
+  <si>
+    <t>الخرج</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +156,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="DroidArabicKufiRegular"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -269,6 +289,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,36 +695,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458B20C-1B04-4155-925E-B59A9F984BC9}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:B103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="8">
         <v>260001482</v>
       </c>
       <c r="B2" s="8">
         <v>300061974</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+      <c r="C2" s="8">
+        <v>250000522</v>
+      </c>
+      <c r="D2" s="8">
+        <v>240001916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="8">
         <f>(A2+1)</f>
         <v>260001483</v>
@@ -711,9 +745,16 @@
         <f>(B2+1)</f>
         <v>300061975</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
+      <c r="C3" s="8">
+        <f>(C2+1)</f>
+        <v>250000523</v>
+      </c>
+      <c r="D3" s="8">
+        <f>(D2+1)</f>
+        <v>240001917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="8">
         <f t="shared" ref="A4:A28" si="0">(A3+1)</f>
         <v>260001484</v>
@@ -722,9 +763,16 @@
         <f t="shared" ref="B4:B67" si="1">(B3+1)</f>
         <v>300061976</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
+      <c r="C4" s="8">
+        <f>(C3+1)</f>
+        <v>250000524</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D5" si="2">(D3+1)</f>
+        <v>240001918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>260001485</v>
@@ -734,8 +782,12 @@
         <v>300061977</v>
       </c>
       <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+      <c r="D5" s="8">
+        <f t="shared" si="2"/>
+        <v>240001919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>260001486</v>
@@ -745,8 +797,9 @@
         <v>300061978</v>
       </c>
       <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>260001487</v>
@@ -755,9 +808,9 @@
         <f t="shared" si="1"/>
         <v>300061979</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>260001488</v>
@@ -766,9 +819,9 @@
         <f t="shared" si="1"/>
         <v>300061980</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>260001489</v>
@@ -777,9 +830,9 @@
         <f t="shared" si="1"/>
         <v>300061981</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>260001490</v>
@@ -788,9 +841,9 @@
         <f t="shared" si="1"/>
         <v>300061982</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>260001491</v>
@@ -799,9 +852,9 @@
         <f t="shared" si="1"/>
         <v>300061983</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>260001492</v>
@@ -810,9 +863,9 @@
         <f t="shared" si="1"/>
         <v>300061984</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>260001493</v>
@@ -821,9 +874,9 @@
         <f t="shared" si="1"/>
         <v>300061985</v>
       </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>260001494</v>
@@ -832,9 +885,9 @@
         <f t="shared" si="1"/>
         <v>300061986</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>260001495</v>
@@ -843,9 +896,9 @@
         <f t="shared" si="1"/>
         <v>300061987</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>260001496</v>
@@ -854,9 +907,9 @@
         <f t="shared" si="1"/>
         <v>300061988</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>260001497</v>
@@ -865,9 +918,9 @@
         <f t="shared" si="1"/>
         <v>300061989</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>260001498</v>
@@ -876,9 +929,9 @@
         <f t="shared" si="1"/>
         <v>300061990</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>260001499</v>
@@ -887,9 +940,9 @@
         <f t="shared" si="1"/>
         <v>300061991</v>
       </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>260001500</v>
@@ -898,9 +951,9 @@
         <f t="shared" si="1"/>
         <v>300061992</v>
       </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>260001501</v>
@@ -909,9 +962,9 @@
         <f t="shared" si="1"/>
         <v>300061993</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>260001502</v>
@@ -920,9 +973,9 @@
         <f t="shared" si="1"/>
         <v>300061994</v>
       </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>260001503</v>
@@ -931,9 +984,9 @@
         <f t="shared" si="1"/>
         <v>300061995</v>
       </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>260001504</v>
@@ -942,9 +995,9 @@
         <f t="shared" si="1"/>
         <v>300061996</v>
       </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>260001505</v>
@@ -953,9 +1006,9 @@
         <f t="shared" si="1"/>
         <v>300061997</v>
       </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>260001506</v>
@@ -964,9 +1017,9 @@
         <f t="shared" si="1"/>
         <v>300061998</v>
       </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>260001507</v>
@@ -975,9 +1028,9 @@
         <f t="shared" si="1"/>
         <v>300061999</v>
       </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>260001508</v>
@@ -986,147 +1039,147 @@
         <f t="shared" si="1"/>
         <v>300062000</v>
       </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="8"/>
       <c r="B29" s="8">
         <f t="shared" si="1"/>
         <v>300062001</v>
       </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="8"/>
       <c r="B30" s="8">
         <f t="shared" si="1"/>
         <v>300062002</v>
       </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="8"/>
       <c r="B31" s="8">
         <f t="shared" si="1"/>
         <v>300062003</v>
       </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="8"/>
       <c r="B32" s="8">
         <f t="shared" si="1"/>
         <v>300062004</v>
       </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="8"/>
       <c r="B33" s="8">
         <f t="shared" si="1"/>
         <v>300062005</v>
       </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="8"/>
       <c r="B34" s="8">
         <f t="shared" si="1"/>
         <v>300062006</v>
       </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="8"/>
       <c r="B35" s="8">
         <f t="shared" si="1"/>
         <v>300062007</v>
       </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="8"/>
       <c r="B36" s="8">
         <f t="shared" si="1"/>
         <v>300062008</v>
       </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="8"/>
       <c r="B37" s="8">
         <f t="shared" si="1"/>
         <v>300062009</v>
       </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="8"/>
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>300062010</v>
       </c>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="8"/>
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>300062011</v>
       </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="8"/>
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>300062012</v>
       </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
       <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>300062013</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:4" ht="15.75">
       <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>300062014</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:4" ht="15.75">
       <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>300062015</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:4" ht="15.75">
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>300062016</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:4" ht="15.75">
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>300062017</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:4" ht="15.75">
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>300062018</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:4" ht="15.75">
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>300062019</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:4" ht="15.75">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>300062020</v>
@@ -1248,218 +1301,440 @@
     </row>
     <row r="68" spans="2:2" ht="15.75">
       <c r="B68" s="8">
-        <f t="shared" ref="B68:B103" si="2">(B67+1)</f>
+        <f t="shared" ref="B68:B101" si="3">(B67+1)</f>
         <v>300062040</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="15.75">
       <c r="B69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062041</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="15.75">
       <c r="B70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062042</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="15.75">
       <c r="B71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062043</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="15.75">
       <c r="B72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062044</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="15.75">
       <c r="B73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062045</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="15.75">
       <c r="B74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062046</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="15.75">
       <c r="B75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062047</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="15.75">
       <c r="B76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062048</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="15.75">
       <c r="B77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062049</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="15.75">
       <c r="B78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062050</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="15.75">
       <c r="B79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062051</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="15.75">
       <c r="B80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062052</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="15.75">
       <c r="B81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062053</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="15.75">
       <c r="B82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062054</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15.75">
       <c r="B83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062055</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15.75">
       <c r="B84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062056</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15.75">
       <c r="B85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062057</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="15.75">
       <c r="B86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062058</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="15.75">
       <c r="B87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062059</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="15.75">
       <c r="B88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062060</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="15.75">
       <c r="B89" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062061</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="15.75">
       <c r="B90" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062062</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="15.75">
       <c r="B91" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062063</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="15.75">
       <c r="B92" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062064</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="15.75">
       <c r="B93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062065</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="15.75">
       <c r="B94" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062066</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="15.75">
       <c r="B95" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062067</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="15.75">
       <c r="B96" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062068</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15.75">
+    <row r="97" spans="1:4" ht="15.75">
       <c r="B97" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062069</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15.75">
+    <row r="98" spans="1:4" ht="15.75">
       <c r="B98" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062070</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15.75">
+    <row r="99" spans="1:4" ht="15.75">
       <c r="B99" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062071</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15.75">
+    <row r="100" spans="1:4" ht="15.75">
       <c r="B100" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062072</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15.75">
+    <row r="101" spans="1:4" ht="15.75">
       <c r="B101" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300062073</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15.75">
+    <row r="102" spans="1:4" ht="15.75">
       <c r="B102" s="8">
-        <f t="shared" si="2"/>
+        <f>(B101+1)</f>
         <v>300062074</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15.75">
+    <row r="103" spans="1:4" ht="15.75">
       <c r="B103" s="8">
-        <f t="shared" si="2"/>
+        <f>(B102+1)</f>
         <v>300062075</v>
+      </c>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
+      <c r="A105" s="8">
+        <v>260001513</v>
+      </c>
+      <c r="B105" s="8">
+        <v>300062080</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
+      <c r="A106" s="8">
+        <f>(A105+1)</f>
+        <v>260001514</v>
+      </c>
+      <c r="B106" s="8">
+        <f>(B105+1)</f>
+        <v>300062081</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
+      <c r="A107" s="8">
+        <f t="shared" ref="A107:A110" si="4">(A106+1)</f>
+        <v>260001515</v>
+      </c>
+      <c r="B107" s="8">
+        <f t="shared" ref="B107:B134" si="5">(B106+1)</f>
+        <v>300062082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
+      <c r="A108" s="8">
+        <f t="shared" si="4"/>
+        <v>260001516</v>
+      </c>
+      <c r="B108" s="8">
+        <f t="shared" si="5"/>
+        <v>300062083</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
+      <c r="A109" s="8">
+        <f t="shared" si="4"/>
+        <v>260001517</v>
+      </c>
+      <c r="B109" s="8">
+        <f t="shared" si="5"/>
+        <v>300062084</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
+      <c r="A110" s="8">
+        <f t="shared" si="4"/>
+        <v>260001518</v>
+      </c>
+      <c r="B110" s="8">
+        <f t="shared" si="5"/>
+        <v>300062085</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8">
+        <f t="shared" si="5"/>
+        <v>300062086</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8">
+        <f t="shared" si="5"/>
+        <v>300062087</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8">
+        <f t="shared" si="5"/>
+        <v>300062088</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8">
+        <f t="shared" si="5"/>
+        <v>300062089</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8">
+        <f t="shared" si="5"/>
+        <v>300062090</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75">
+      <c r="B116" s="8">
+        <f t="shared" si="5"/>
+        <v>300062091</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75">
+      <c r="B117" s="8">
+        <f t="shared" si="5"/>
+        <v>300062092</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75">
+      <c r="B118" s="8">
+        <f t="shared" si="5"/>
+        <v>300062093</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75">
+      <c r="B119" s="8">
+        <f t="shared" si="5"/>
+        <v>300062094</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75">
+      <c r="B120" s="8">
+        <f t="shared" si="5"/>
+        <v>300062095</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75">
+      <c r="B121" s="8">
+        <f t="shared" si="5"/>
+        <v>300062096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75">
+      <c r="B122" s="8">
+        <f t="shared" si="5"/>
+        <v>300062097</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75">
+      <c r="B123" s="8">
+        <f t="shared" si="5"/>
+        <v>300062098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75">
+      <c r="B124" s="8">
+        <f t="shared" si="5"/>
+        <v>300062099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75">
+      <c r="B125" s="8">
+        <f t="shared" si="5"/>
+        <v>300062100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75">
+      <c r="B126" s="8">
+        <f t="shared" si="5"/>
+        <v>300062101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75">
+      <c r="B127" s="8">
+        <f t="shared" si="5"/>
+        <v>300062102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75">
+      <c r="B128" s="8">
+        <f t="shared" si="5"/>
+        <v>300062103</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15.75">
+      <c r="B129" s="8">
+        <f t="shared" si="5"/>
+        <v>300062104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="15.75">
+      <c r="B130" s="8">
+        <f t="shared" si="5"/>
+        <v>300062105</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="15.75">
+      <c r="B131" s="8">
+        <f t="shared" si="5"/>
+        <v>300062106</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="15.75">
+      <c r="B132" s="8">
+        <f t="shared" si="5"/>
+        <v>300062107</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="15.75">
+      <c r="B133" s="8">
+        <f t="shared" si="5"/>
+        <v>300062108</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="15.75">
+      <c r="B134" s="8">
+        <f t="shared" si="5"/>
+        <v>300062109</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="15.75">
+      <c r="B135" s="8">
+        <f>(B134+1)</f>
+        <v>300062110</v>
       </c>
     </row>
   </sheetData>
@@ -1469,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF1FD5-29EE-421C-AA0A-0A80037E3444}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,11 +1757,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -1526,7 +1807,10 @@
         <f t="shared" si="0"/>
         <v>930009028</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9">
+        <f>(B4+1)</f>
+        <v>926000281</v>
+      </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:7">
@@ -1682,6 +1966,37 @@
         <f t="shared" si="0"/>
         <v>930009053</v>
       </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9">
+        <v>930009056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9">
+        <f>(A32+1)</f>
+        <v>930009057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9">
+        <f t="shared" ref="A34:A35" si="1">(A33+1)</f>
+        <v>930009058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9">
+        <f t="shared" si="1"/>
+        <v>930009059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
